--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Mmp9</t>
+  </si>
+  <si>
+    <t>Cd44</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmp9</t>
-  </si>
-  <si>
-    <t>Cd44</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.111437</v>
+        <v>2.316745</v>
       </c>
       <c r="H2">
-        <v>0.334311</v>
+        <v>6.950235000000001</v>
       </c>
       <c r="I2">
-        <v>0.0181688321901331</v>
+        <v>0.6215149392831735</v>
       </c>
       <c r="J2">
-        <v>0.0181688321901331</v>
+        <v>0.6215149392831734</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>3.546751459626668</v>
+        <v>37.70610061692834</v>
       </c>
       <c r="R2">
-        <v>31.92076313664001</v>
+        <v>339.354905552355</v>
       </c>
       <c r="S2">
-        <v>0.002078347120881915</v>
+        <v>0.04119749394915063</v>
       </c>
       <c r="T2">
-        <v>0.002078347120881915</v>
+        <v>0.04119749394915062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.111437</v>
+        <v>2.316745</v>
       </c>
       <c r="H3">
-        <v>0.334311</v>
+        <v>6.950235000000001</v>
       </c>
       <c r="I3">
-        <v>0.0181688321901331</v>
+        <v>0.6215149392831735</v>
       </c>
       <c r="J3">
-        <v>0.0181688321901331</v>
+        <v>0.6215149392831734</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>9.523760203931669</v>
+        <v>197.9963910878584</v>
       </c>
       <c r="R3">
-        <v>85.71384183538501</v>
+        <v>1781.967519790725</v>
       </c>
       <c r="S3">
-        <v>0.005580791274811975</v>
+        <v>0.2163298508818385</v>
       </c>
       <c r="T3">
-        <v>0.005580791274811975</v>
+        <v>0.2163298508818385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.111437</v>
+        <v>2.316745</v>
       </c>
       <c r="H4">
-        <v>0.334311</v>
+        <v>6.950235000000001</v>
       </c>
       <c r="I4">
-        <v>0.0181688321901331</v>
+        <v>0.6215149392831735</v>
       </c>
       <c r="J4">
-        <v>0.0181688321901331</v>
+        <v>0.6215149392831734</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>4.312124400270667</v>
+        <v>98.72463931394334</v>
       </c>
       <c r="R4">
-        <v>38.809119602436</v>
+        <v>888.5217538254901</v>
       </c>
       <c r="S4">
-        <v>0.002526845039525422</v>
+        <v>0.1078660392939774</v>
       </c>
       <c r="T4">
-        <v>0.002526845039525422</v>
+        <v>0.1078660392939774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.111437</v>
+        <v>2.316745</v>
       </c>
       <c r="H5">
-        <v>0.334311</v>
+        <v>6.950235000000001</v>
       </c>
       <c r="I5">
-        <v>0.0181688321901331</v>
+        <v>0.6215149392831735</v>
       </c>
       <c r="J5">
-        <v>0.0181688321901331</v>
+        <v>0.6215149392831734</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>13.62293150600133</v>
+        <v>234.41583948964</v>
       </c>
       <c r="R5">
-        <v>122.606383554012</v>
+        <v>2109.74255540676</v>
       </c>
       <c r="S5">
-        <v>0.007982848754913788</v>
+        <v>0.2561215551582069</v>
       </c>
       <c r="T5">
-        <v>0.007982848754913788</v>
+        <v>0.2561215551582068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.316745</v>
+        <v>0.4681666666666666</v>
       </c>
       <c r="H6">
-        <v>6.950235000000001</v>
+        <v>1.4045</v>
       </c>
       <c r="I6">
-        <v>0.3777250924946823</v>
+        <v>0.1255954269493358</v>
       </c>
       <c r="J6">
-        <v>0.3777250924946823</v>
+        <v>0.1255954269493358</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>73.73600070293337</v>
+        <v>7.619629885388887</v>
       </c>
       <c r="R6">
-        <v>663.6240063264003</v>
+        <v>68.57666896849999</v>
       </c>
       <c r="S6">
-        <v>0.0432082728408659</v>
+        <v>0.00832516889739441</v>
       </c>
       <c r="T6">
-        <v>0.0432082728408659</v>
+        <v>0.00832516889739441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.316745</v>
+        <v>0.4681666666666666</v>
       </c>
       <c r="H7">
-        <v>6.950235000000001</v>
+        <v>1.4045</v>
       </c>
       <c r="I7">
-        <v>0.3777250924946823</v>
+        <v>0.1255954269493358</v>
       </c>
       <c r="J7">
-        <v>0.3777250924946823</v>
+        <v>0.1255954269493358</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
-        <v>197.9963910878584</v>
+        <v>40.01101132305556</v>
       </c>
       <c r="R7">
-        <v>1781.967519790725</v>
+        <v>360.0991019075</v>
       </c>
       <c r="S7">
-        <v>0.1160231366778025</v>
+        <v>0.04371582767540121</v>
       </c>
       <c r="T7">
-        <v>0.1160231366778025</v>
+        <v>0.04371582767540121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.316745</v>
+        <v>0.4681666666666666</v>
       </c>
       <c r="H8">
-        <v>6.950235000000001</v>
+        <v>1.4045</v>
       </c>
       <c r="I8">
-        <v>0.3777250924946823</v>
+        <v>0.1255954269493358</v>
       </c>
       <c r="J8">
-        <v>0.3777250924946823</v>
+        <v>0.1255954269493358</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>89.64789651287334</v>
+        <v>19.95022555588888</v>
       </c>
       <c r="R8">
-        <v>806.8310686158601</v>
+        <v>179.552030003</v>
       </c>
       <c r="S8">
-        <v>0.05253242290348201</v>
+        <v>0.02179751507515807</v>
       </c>
       <c r="T8">
-        <v>0.05253242290348201</v>
+        <v>0.02179751507515807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.316745</v>
+        <v>0.4681666666666666</v>
       </c>
       <c r="H9">
-        <v>6.950235000000001</v>
+        <v>1.4045</v>
       </c>
       <c r="I9">
-        <v>0.3777250924946823</v>
+        <v>0.1255954269493358</v>
       </c>
       <c r="J9">
-        <v>0.3777250924946823</v>
+        <v>0.1255954269493358</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>283.2170504578468</v>
+        <v>47.37063517466666</v>
       </c>
       <c r="R9">
-        <v>2548.95345412062</v>
+        <v>426.3357165719999</v>
       </c>
       <c r="S9">
-        <v>0.165961260072532</v>
+        <v>0.0517569153013821</v>
       </c>
       <c r="T9">
-        <v>0.165961260072532</v>
+        <v>0.0517569153013821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4525823333333334</v>
+        <v>0.9426656666666666</v>
       </c>
       <c r="H10">
-        <v>1.357747</v>
+        <v>2.827997</v>
       </c>
       <c r="I10">
-        <v>0.07378960728081531</v>
+        <v>0.2528896337674908</v>
       </c>
       <c r="J10">
-        <v>0.07378960728081531</v>
+        <v>0.2528896337674907</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>14.40452499036445</v>
+        <v>15.34232143609122</v>
       </c>
       <c r="R10">
-        <v>129.64072491328</v>
+        <v>138.080892924821</v>
       </c>
       <c r="S10">
-        <v>0.008440851687010172</v>
+        <v>0.0167629424466534</v>
       </c>
       <c r="T10">
-        <v>0.008440851687010172</v>
+        <v>0.0167629424466534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4525823333333334</v>
+        <v>0.9426656666666666</v>
       </c>
       <c r="H11">
-        <v>1.357747</v>
+        <v>2.827997</v>
       </c>
       <c r="I11">
-        <v>0.07378960728081531</v>
+        <v>0.2528896337674908</v>
       </c>
       <c r="J11">
-        <v>0.07378960728081531</v>
+        <v>0.2528896337674907</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>38.67912466418279</v>
+        <v>80.56320397904389</v>
       </c>
       <c r="R11">
-        <v>348.112121977645</v>
+        <v>725.068835811395</v>
       </c>
       <c r="S11">
-        <v>0.02266543012644554</v>
+        <v>0.08802294732541945</v>
       </c>
       <c r="T11">
-        <v>0.02266543012644554</v>
+        <v>0.08802294732541943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4525823333333334</v>
+        <v>0.9426656666666666</v>
       </c>
       <c r="H12">
-        <v>1.357747</v>
+        <v>2.827997</v>
       </c>
       <c r="I12">
-        <v>0.07378960728081531</v>
+        <v>0.2528896337674908</v>
       </c>
       <c r="J12">
-        <v>0.07378960728081531</v>
+        <v>0.2528896337674907</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>17.51295640315244</v>
+        <v>40.17029407004421</v>
       </c>
       <c r="R12">
-        <v>157.616607628372</v>
+        <v>361.5326466303979</v>
       </c>
       <c r="S12">
-        <v>0.01026234934501265</v>
+        <v>0.0438898591954445</v>
       </c>
       <c r="T12">
-        <v>0.01026234934501265</v>
+        <v>0.0438898591954445</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4525823333333334</v>
+        <v>0.9426656666666666</v>
       </c>
       <c r="H13">
-        <v>1.357747</v>
+        <v>2.827997</v>
       </c>
       <c r="I13">
-        <v>0.07378960728081531</v>
+        <v>0.2528896337674908</v>
       </c>
       <c r="J13">
-        <v>0.07378960728081531</v>
+        <v>0.2528896337674907</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>55.32720844805823</v>
+        <v>95.38199655539465</v>
       </c>
       <c r="R13">
-        <v>497.944876032524</v>
+        <v>858.4379689985518</v>
       </c>
       <c r="S13">
-        <v>0.03242097612234695</v>
+        <v>0.1042138847999734</v>
       </c>
       <c r="T13">
-        <v>0.03242097612234696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3.252651333333333</v>
-      </c>
-      <c r="H14">
-        <v>9.757954</v>
-      </c>
-      <c r="I14">
-        <v>0.5303164680343693</v>
-      </c>
-      <c r="J14">
-        <v>0.5303164680343693</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>31.82741333333334</v>
-      </c>
-      <c r="N14">
-        <v>95.48224000000002</v>
-      </c>
-      <c r="O14">
-        <v>0.114390792932228</v>
-      </c>
-      <c r="P14">
-        <v>0.1143907929322281</v>
-      </c>
-      <c r="Q14">
-        <v>103.5234784152178</v>
-      </c>
-      <c r="R14">
-        <v>931.7113057369602</v>
-      </c>
-      <c r="S14">
-        <v>0.06066332128347007</v>
-      </c>
-      <c r="T14">
-        <v>0.06066332128347008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3.252651333333333</v>
-      </c>
-      <c r="H15">
-        <v>9.757954</v>
-      </c>
-      <c r="I15">
-        <v>0.5303164680343693</v>
-      </c>
-      <c r="J15">
-        <v>0.5303164680343693</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>85.46317833333335</v>
-      </c>
-      <c r="N15">
-        <v>256.389535</v>
-      </c>
-      <c r="O15">
-        <v>0.307162904935779</v>
-      </c>
-      <c r="P15">
-        <v>0.307162904935779</v>
-      </c>
-      <c r="Q15">
-        <v>277.9819209568211</v>
-      </c>
-      <c r="R15">
-        <v>2501.83728861139</v>
-      </c>
-      <c r="S15">
-        <v>0.1628935468567191</v>
-      </c>
-      <c r="T15">
-        <v>0.1628935468567191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.252651333333333</v>
-      </c>
-      <c r="H16">
-        <v>9.757954</v>
-      </c>
-      <c r="I16">
-        <v>0.5303164680343693</v>
-      </c>
-      <c r="J16">
-        <v>0.5303164680343693</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>38.69562533333333</v>
-      </c>
-      <c r="N16">
-        <v>116.086876</v>
-      </c>
-      <c r="O16">
-        <v>0.1390758092255191</v>
-      </c>
-      <c r="P16">
-        <v>0.1390758092255191</v>
-      </c>
-      <c r="Q16">
-        <v>125.8633773346338</v>
-      </c>
-      <c r="R16">
-        <v>1132.770396011704</v>
-      </c>
-      <c r="S16">
-        <v>0.07375419193749905</v>
-      </c>
-      <c r="T16">
-        <v>0.07375419193749905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.252651333333333</v>
-      </c>
-      <c r="H17">
-        <v>9.757954</v>
-      </c>
-      <c r="I17">
-        <v>0.5303164680343693</v>
-      </c>
-      <c r="J17">
-        <v>0.5303164680343693</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>122.2478306666667</v>
-      </c>
-      <c r="N17">
-        <v>366.743492</v>
-      </c>
-      <c r="O17">
-        <v>0.4393704929064738</v>
-      </c>
-      <c r="P17">
-        <v>0.4393704929064738</v>
-      </c>
-      <c r="Q17">
-        <v>397.6295694150409</v>
-      </c>
-      <c r="R17">
-        <v>3578.666124735368</v>
-      </c>
-      <c r="S17">
-        <v>0.2330054079566811</v>
-      </c>
-      <c r="T17">
-        <v>0.2330054079566811</v>
+        <v>0.1042138847999734</v>
       </c>
     </row>
   </sheetData>
